--- a/data/item_master.xlsx
+++ b/data/item_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Prueba\Luftek\ahu\server\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hablu\Documents\GitHub\node_ahuBom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5911E74A-5321-46D6-9D04-E2AB5DBF6D77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25CA3D4-7B80-4793-AB98-A3A22F05231A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$G$2466</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12364" uniqueCount="5008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12362" uniqueCount="5009">
   <si>
     <t>id</t>
   </si>
@@ -15048,6 +15059,9 @@
   </si>
   <si>
     <t>40-50</t>
+  </si>
+  <si>
+    <t>50-48-C</t>
   </si>
 </sst>
 </file>
@@ -15889,10 +15903,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB602F4-AE8C-477A-8B3C-98C187989AD6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G2473"/>
+  <dimension ref="A1:G2466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2467" sqref="D2467"/>
+      <selection activeCell="D661" sqref="D661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17759,6 +17773,9 @@
       <c r="C93" t="s">
         <v>208</v>
       </c>
+      <c r="D93">
+        <v>1.2</v>
+      </c>
       <c r="E93" t="s">
         <v>61</v>
       </c>
@@ -18039,6 +18056,9 @@
       <c r="C107" t="s">
         <v>237</v>
       </c>
+      <c r="D107">
+        <v>0.8</v>
+      </c>
       <c r="E107" t="s">
         <v>61</v>
       </c>
@@ -20519,6 +20539,9 @@
       <c r="C231" t="s">
         <v>496</v>
       </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
       <c r="E231" t="s">
         <v>61</v>
       </c>
@@ -21659,6 +21682,9 @@
       <c r="C288" t="s">
         <v>611</v>
       </c>
+      <c r="D288">
+        <v>1.6</v>
+      </c>
       <c r="E288" t="s">
         <v>61</v>
       </c>
@@ -23842,6 +23868,9 @@
       <c r="C397" t="s">
         <v>833</v>
       </c>
+      <c r="D397">
+        <v>0.8</v>
+      </c>
       <c r="E397" t="s">
         <v>61</v>
       </c>
@@ -26725,6 +26754,9 @@
       <c r="C541" t="s">
         <v>1124</v>
       </c>
+      <c r="D541">
+        <v>0.8</v>
+      </c>
       <c r="E541" t="s">
         <v>61</v>
       </c>
@@ -29065,6 +29097,9 @@
       <c r="C658" t="s">
         <v>1358</v>
       </c>
+      <c r="D658">
+        <v>0.6</v>
+      </c>
       <c r="E658" t="s">
         <v>61</v>
       </c>
@@ -29126,7 +29161,7 @@
         <v>1364</v>
       </c>
       <c r="D661" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="E661" t="s">
         <v>748</v>
@@ -29828,6 +29863,9 @@
       <c r="C696" t="s">
         <v>1437</v>
       </c>
+      <c r="D696">
+        <v>2</v>
+      </c>
       <c r="E696" t="s">
         <v>61</v>
       </c>
@@ -30568,6 +30606,9 @@
       <c r="C733" t="s">
         <v>1512</v>
       </c>
+      <c r="D733">
+        <v>2.5</v>
+      </c>
       <c r="E733" t="s">
         <v>61</v>
       </c>
@@ -33891,6 +33932,9 @@
       <c r="C899" t="s">
         <v>1845</v>
       </c>
+      <c r="D899">
+        <v>1.6</v>
+      </c>
       <c r="E899" t="s">
         <v>61</v>
       </c>
@@ -36031,6 +36075,9 @@
       <c r="C1006" t="s">
         <v>2059</v>
       </c>
+      <c r="D1006">
+        <v>1</v>
+      </c>
       <c r="E1006" t="s">
         <v>61</v>
       </c>
@@ -39154,6 +39201,9 @@
       <c r="C1162" t="s">
         <v>2373</v>
       </c>
+      <c r="D1162">
+        <v>2.5</v>
+      </c>
       <c r="E1162" t="s">
         <v>61</v>
       </c>
@@ -40154,6 +40204,9 @@
       <c r="C1212" t="s">
         <v>2473</v>
       </c>
+      <c r="D1212">
+        <v>1.6</v>
+      </c>
       <c r="E1212" t="s">
         <v>61</v>
       </c>
@@ -41954,6 +42007,9 @@
       <c r="C1302" t="s">
         <v>2653</v>
       </c>
+      <c r="D1302">
+        <v>1.2</v>
+      </c>
       <c r="E1302" t="s">
         <v>61</v>
       </c>
@@ -42014,6 +42070,9 @@
       <c r="C1305" t="s">
         <v>2659</v>
       </c>
+      <c r="D1305">
+        <v>0.6</v>
+      </c>
       <c r="E1305" t="s">
         <v>61</v>
       </c>
@@ -42677,6 +42736,9 @@
       <c r="C1338" t="s">
         <v>2725</v>
       </c>
+      <c r="D1338">
+        <v>0.8</v>
+      </c>
       <c r="E1338" t="s">
         <v>61</v>
       </c>
@@ -45300,6 +45362,9 @@
       <c r="C1469" t="s">
         <v>2987</v>
       </c>
+      <c r="D1469">
+        <v>1.2</v>
+      </c>
       <c r="E1469" t="s">
         <v>61</v>
       </c>
@@ -46940,6 +47005,9 @@
       <c r="C1551" t="s">
         <v>3152</v>
       </c>
+      <c r="D1551">
+        <v>1.2</v>
+      </c>
       <c r="E1551" t="s">
         <v>61</v>
       </c>
@@ -47920,6 +47988,9 @@
       <c r="C1600" t="s">
         <v>3251</v>
       </c>
+      <c r="D1600">
+        <v>2</v>
+      </c>
       <c r="E1600" t="s">
         <v>61</v>
       </c>
@@ -48300,6 +48371,9 @@
       <c r="C1619" t="s">
         <v>3289</v>
       </c>
+      <c r="D1619">
+        <v>2</v>
+      </c>
       <c r="E1619" t="s">
         <v>61</v>
       </c>
@@ -48620,6 +48694,9 @@
       <c r="C1635" t="s">
         <v>3321</v>
       </c>
+      <c r="D1635">
+        <v>0.6</v>
+      </c>
       <c r="E1635" t="s">
         <v>61</v>
       </c>
@@ -49040,6 +49117,9 @@
       <c r="C1656" t="s">
         <v>3363</v>
       </c>
+      <c r="D1656">
+        <v>0.6</v>
+      </c>
       <c r="E1656" t="s">
         <v>61</v>
       </c>
@@ -49381,7 +49461,7 @@
         <v>3397</v>
       </c>
       <c r="D1673" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="E1673" t="s">
         <v>748</v>
@@ -50143,6 +50223,9 @@
       <c r="C1711" t="s">
         <v>3473</v>
       </c>
+      <c r="D1711">
+        <v>1.6</v>
+      </c>
       <c r="E1711" t="s">
         <v>61</v>
       </c>
@@ -53246,6 +53329,9 @@
       <c r="C1866" t="s">
         <v>3783</v>
       </c>
+      <c r="D1866">
+        <v>1</v>
+      </c>
       <c r="E1866" t="s">
         <v>61</v>
       </c>
@@ -53746,6 +53832,9 @@
       <c r="C1891" t="s">
         <v>3833</v>
       </c>
+      <c r="D1891">
+        <v>0.6</v>
+      </c>
       <c r="E1891" t="s">
         <v>61</v>
       </c>
@@ -54246,6 +54335,9 @@
       <c r="C1916" t="s">
         <v>3883</v>
       </c>
+      <c r="D1916">
+        <v>1</v>
+      </c>
       <c r="E1916" t="s">
         <v>61</v>
       </c>
@@ -58232,6 +58324,9 @@
       <c r="C2115" t="s">
         <v>4285</v>
       </c>
+      <c r="D2115">
+        <v>0.8</v>
+      </c>
       <c r="E2115" t="s">
         <v>61</v>
       </c>
@@ -59338,6 +59433,9 @@
       <c r="C2170" t="s">
         <v>4396</v>
       </c>
+      <c r="D2170">
+        <v>0</v>
+      </c>
       <c r="E2170" t="s">
         <v>1408</v>
       </c>
@@ -63694,6 +63792,9 @@
       <c r="C2386" t="s">
         <v>4842</v>
       </c>
+      <c r="D2386">
+        <v>3</v>
+      </c>
       <c r="E2386" t="s">
         <v>61</v>
       </c>
@@ -65154,6 +65255,9 @@
       <c r="C2459" t="s">
         <v>4987</v>
       </c>
+      <c r="D2459">
+        <v>0</v>
+      </c>
       <c r="E2459" t="s">
         <v>61</v>
       </c>
@@ -65174,6 +65278,9 @@
       <c r="C2460" t="s">
         <v>4989</v>
       </c>
+      <c r="D2460">
+        <v>0</v>
+      </c>
       <c r="E2460" t="s">
         <v>61</v>
       </c>
@@ -65302,16 +65409,6 @@
       </c>
       <c r="G2466" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="2472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E2472" t="s">
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="2473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E2473" t="s">
-        <v>5003</v>
       </c>
     </row>
   </sheetData>

--- a/data/item_master.xlsx
+++ b/data/item_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hablu\Documents\GitHub\node_ahuBom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25CA3D4-7B80-4793-AB98-A3A22F05231A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCF2A9-BA57-4BEF-9CB7-A23B2BBEB0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12362" uniqueCount="5009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12375" uniqueCount="5010">
   <si>
     <t>id</t>
   </si>
@@ -15062,6 +15062,9 @@
   </si>
   <si>
     <t>50-48-C</t>
+  </si>
+  <si>
+    <t>60-45</t>
   </si>
 </sst>
 </file>
@@ -15906,7 +15909,7 @@
   <dimension ref="A1:G2466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D661" sqref="D661"/>
+      <selection activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16583,7 +16586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18809,7 +18812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19549,7 +19552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -21332,7 +21335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -21341,6 +21344,9 @@
       </c>
       <c r="C271" t="s">
         <v>577</v>
+      </c>
+      <c r="D271" t="s">
+        <v>5002</v>
       </c>
       <c r="E271" t="s">
         <v>9</v>
@@ -22715,7 +22721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -23015,7 +23021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>354</v>
       </c>
@@ -24201,7 +24207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -25641,7 +25647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>485</v>
       </c>
@@ -26381,7 +26387,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>522</v>
       </c>
@@ -26501,7 +26507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -26721,7 +26727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>539</v>
       </c>
@@ -28247,7 +28253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -29150,7 +29156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>660</v>
       </c>
@@ -29693,7 +29699,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>687</v>
       </c>
@@ -31539,7 +31545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>779</v>
       </c>
@@ -31548,6 +31554,9 @@
       </c>
       <c r="C780" t="s">
         <v>1606</v>
+      </c>
+      <c r="D780" t="s">
+        <v>5005</v>
       </c>
       <c r="E780" t="s">
         <v>9</v>
@@ -32099,7 +32108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>807</v>
       </c>
@@ -34105,7 +34114,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>907</v>
       </c>
@@ -34114,6 +34123,9 @@
       </c>
       <c r="C908" t="s">
         <v>1863</v>
+      </c>
+      <c r="D908" t="s">
+        <v>5004</v>
       </c>
       <c r="E908" t="s">
         <v>9</v>
@@ -34985,7 +34997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>951</v>
       </c>
@@ -34994,6 +35006,9 @@
       </c>
       <c r="C952" t="s">
         <v>1951</v>
+      </c>
+      <c r="D952" t="s">
+        <v>5002</v>
       </c>
       <c r="E952" t="s">
         <v>9</v>
@@ -36788,7 +36803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1042" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1042" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1042">
         <v>1041</v>
       </c>
@@ -41377,7 +41392,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1271">
         <v>1270</v>
       </c>
@@ -41386,6 +41401,9 @@
       </c>
       <c r="C1271" t="s">
         <v>2591</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>5004</v>
       </c>
       <c r="E1271" t="s">
         <v>9</v>
@@ -42443,7 +42461,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1324">
         <v>1323</v>
       </c>
@@ -43249,7 +43267,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1364">
         <v>1363</v>
       </c>
@@ -43689,7 +43707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1386">
         <v>1385</v>
       </c>
@@ -44269,7 +44287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1415">
         <v>1414</v>
       </c>
@@ -45575,7 +45593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1480" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1480">
         <v>1479</v>
       </c>
@@ -46135,7 +46153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1508">
         <v>1507</v>
       </c>
@@ -47118,7 +47136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557">
         <v>1556</v>
       </c>
@@ -47198,7 +47216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561">
         <v>1560</v>
       </c>
@@ -47918,7 +47936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1597">
         <v>1596</v>
       </c>
@@ -47927,6 +47945,9 @@
       </c>
       <c r="C1597" t="s">
         <v>3245</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>5002</v>
       </c>
       <c r="E1597" t="s">
         <v>9</v>
@@ -49450,7 +49471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1673" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1673" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1673">
         <v>1672</v>
       </c>
@@ -53156,7 +53177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1858" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1858" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1858">
         <v>1857</v>
       </c>
@@ -54388,7 +54409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1919" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1919">
         <v>1918</v>
       </c>
@@ -54397,6 +54418,9 @@
       </c>
       <c r="C1919" t="s">
         <v>3889</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>5004</v>
       </c>
       <c r="E1919" t="s">
         <v>9</v>
@@ -54628,7 +54652,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1931" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1931">
         <v>1930</v>
       </c>
@@ -54637,6 +54661,9 @@
       </c>
       <c r="C1931" t="s">
         <v>3913</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>5005</v>
       </c>
       <c r="E1931" t="s">
         <v>9</v>
@@ -56248,7 +56275,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2012" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2012">
         <v>2011</v>
       </c>
@@ -56268,7 +56295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2013" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2013">
         <v>2012</v>
       </c>
@@ -56288,7 +56315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2014" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2014">
         <v>2013</v>
       </c>
@@ -56308,7 +56335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2015" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2015">
         <v>2014</v>
       </c>
@@ -56488,7 +56515,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2024" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2024" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2024">
         <v>2023</v>
       </c>
@@ -57288,7 +57315,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="2064" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2064">
         <v>2063</v>
       </c>
@@ -58088,7 +58115,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2104">
         <v>2103</v>
       </c>
@@ -58108,7 +58135,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2105">
         <v>2104</v>
       </c>
@@ -58188,7 +58215,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="2109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2109">
         <v>2108</v>
       </c>
@@ -58228,7 +58255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2111">
         <v>2110</v>
       </c>
@@ -58251,7 +58278,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2112">
         <v>2111</v>
       </c>
@@ -58274,7 +58301,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2113">
         <v>2112</v>
       </c>
@@ -58294,7 +58321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2114">
         <v>2113</v>
       </c>
@@ -58457,7 +58484,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="2122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2122">
         <v>2121</v>
       </c>
@@ -58480,7 +58507,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2123">
         <v>2122</v>
       </c>
@@ -58983,7 +59010,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2148">
         <v>2147</v>
       </c>
@@ -59143,7 +59170,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2156">
         <v>2155</v>
       </c>
@@ -59163,7 +59190,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2157">
         <v>2156</v>
       </c>
@@ -59173,6 +59200,9 @@
       <c r="C2157" t="s">
         <v>4370</v>
       </c>
+      <c r="D2157" t="s">
+        <v>5009</v>
+      </c>
       <c r="E2157" t="s">
         <v>9</v>
       </c>
@@ -59183,7 +59213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2158">
         <v>2157</v>
       </c>
@@ -59193,6 +59223,9 @@
       <c r="C2158" t="s">
         <v>4372</v>
       </c>
+      <c r="D2158" t="s">
+        <v>5009</v>
+      </c>
       <c r="E2158" t="s">
         <v>9</v>
       </c>
@@ -59203,7 +59236,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2159">
         <v>2158</v>
       </c>
@@ -59213,6 +59246,9 @@
       <c r="C2159" t="s">
         <v>4374</v>
       </c>
+      <c r="D2159" t="s">
+        <v>5007</v>
+      </c>
       <c r="E2159" t="s">
         <v>9</v>
       </c>
@@ -59223,7 +59259,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2160">
         <v>2159</v>
       </c>
@@ -59232,6 +59268,9 @@
       </c>
       <c r="C2160" t="s">
         <v>4376</v>
+      </c>
+      <c r="D2160" t="s">
+        <v>5007</v>
       </c>
       <c r="E2160" t="s">
         <v>9</v>
@@ -59263,7 +59302,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2162">
         <v>2161</v>
       </c>
@@ -59283,7 +59322,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2163">
         <v>2162</v>
       </c>
@@ -59303,7 +59342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2164">
         <v>2163</v>
       </c>
@@ -59323,7 +59362,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2165">
         <v>2164</v>
       </c>
@@ -60856,7 +60895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2240">
         <v>2239</v>
       </c>
@@ -60876,7 +60915,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2241">
         <v>2240</v>
       </c>
@@ -60896,7 +60935,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2242">
         <v>2241</v>
       </c>
@@ -61865,7 +61904,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2290">
         <v>2289</v>
       </c>
@@ -61888,7 +61927,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2291">
         <v>2290</v>
       </c>
@@ -61897,6 +61936,9 @@
       </c>
       <c r="C2291" t="s">
         <v>4652</v>
+      </c>
+      <c r="D2291" t="s">
+        <v>5004</v>
       </c>
       <c r="E2291" t="s">
         <v>9</v>
@@ -62599,7 +62641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2327">
         <v>2326</v>
       </c>
@@ -62619,7 +62661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2328">
         <v>2327</v>
       </c>
@@ -62639,7 +62681,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2329">
         <v>2328</v>
       </c>
@@ -62659,7 +62701,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2330">
         <v>2329</v>
       </c>
@@ -62679,7 +62721,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2331">
         <v>2330</v>
       </c>
@@ -62699,7 +62741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2332">
         <v>2331</v>
       </c>
@@ -62719,7 +62761,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2333">
         <v>2332</v>
       </c>
@@ -62739,7 +62781,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2334">
         <v>2333</v>
       </c>
@@ -63522,7 +63564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2373">
         <v>2372</v>
       </c>
@@ -65415,7 +65457,7 @@
   <autoFilter ref="C1:G2466" xr:uid="{3A8A7F03-DC36-4A33-B49D-D5EA9E1CB115}">
     <filterColumn colId="4">
       <filters>
-        <filter val="ALUMINIUM PROFILES"/>
+        <filter val="PLASTIC PARTS"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/item_master.xlsx
+++ b/data/item_master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hablu\Documents\GitHub\node_ahuBom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BCF2A9-BA57-4BEF-9CB7-A23B2BBEB0E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960FE6E-484E-4105-94AE-0BB286F4A7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12375" uniqueCount="5010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="5010">
   <si>
     <t>id</t>
   </si>
@@ -16586,7 +16586,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -18812,7 +18812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -19552,7 +19552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -22721,7 +22721,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
@@ -24207,7 +24207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>413</v>
       </c>
@@ -26507,7 +26507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>528</v>
       </c>
@@ -28253,7 +28253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>615</v>
       </c>
@@ -35008,7 +35008,7 @@
         <v>1951</v>
       </c>
       <c r="D952" t="s">
-        <v>5002</v>
+        <v>5003</v>
       </c>
       <c r="E952" t="s">
         <v>9</v>
@@ -43267,7 +43267,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1364" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1364">
         <v>1363</v>
       </c>
@@ -43707,7 +43707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1386" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1386">
         <v>1385</v>
       </c>
@@ -46163,6 +46163,9 @@
       <c r="C1508" t="s">
         <v>3065</v>
       </c>
+      <c r="D1508" t="s">
+        <v>5003</v>
+      </c>
       <c r="E1508" t="s">
         <v>9</v>
       </c>
@@ -47146,6 +47149,9 @@
       <c r="C1557" t="s">
         <v>3164</v>
       </c>
+      <c r="D1557" t="s">
+        <v>5008</v>
+      </c>
       <c r="E1557" t="s">
         <v>9</v>
       </c>
@@ -47216,7 +47222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1561">
         <v>1560</v>
       </c>
@@ -54420,7 +54426,7 @@
         <v>3889</v>
       </c>
       <c r="D1919" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="E1919" t="s">
         <v>9</v>
@@ -56275,7 +56281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2012" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2012" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2012">
         <v>2011</v>
       </c>
@@ -56295,7 +56301,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2013" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2013" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2013">
         <v>2012</v>
       </c>
@@ -56315,7 +56321,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2014" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2014" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2014">
         <v>2013</v>
       </c>
@@ -56335,7 +56341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2015" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2015" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2015">
         <v>2014</v>
       </c>
@@ -56515,7 +56521,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2024" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2024" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2024">
         <v>2023</v>
       </c>
@@ -57315,7 +57321,7 @@
         <v>4180</v>
       </c>
     </row>
-    <row r="2064" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2064" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2064">
         <v>2063</v>
       </c>
@@ -58115,7 +58121,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2104">
         <v>2103</v>
       </c>
@@ -58135,7 +58141,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2105">
         <v>2104</v>
       </c>
@@ -58215,7 +58221,7 @@
         <v>4257</v>
       </c>
     </row>
-    <row r="2109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2109">
         <v>2108</v>
       </c>
@@ -58311,6 +58317,9 @@
       <c r="C2113" t="s">
         <v>4281</v>
       </c>
+      <c r="D2113" t="s">
+        <v>5007</v>
+      </c>
       <c r="E2113" t="s">
         <v>9</v>
       </c>
@@ -58331,6 +58340,9 @@
       <c r="C2114" t="s">
         <v>4283</v>
       </c>
+      <c r="D2114" t="s">
+        <v>5007</v>
+      </c>
       <c r="E2114" t="s">
         <v>9</v>
       </c>
@@ -59010,7 +59022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2148">
         <v>2147</v>
       </c>
@@ -59170,7 +59182,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2156">
         <v>2155</v>
       </c>
@@ -59246,9 +59258,6 @@
       <c r="C2159" t="s">
         <v>4374</v>
       </c>
-      <c r="D2159" t="s">
-        <v>5007</v>
-      </c>
       <c r="E2159" t="s">
         <v>9</v>
       </c>
@@ -59269,9 +59278,6 @@
       <c r="C2160" t="s">
         <v>4376</v>
       </c>
-      <c r="D2160" t="s">
-        <v>5007</v>
-      </c>
       <c r="E2160" t="s">
         <v>9</v>
       </c>
@@ -59302,7 +59308,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2162">
         <v>2161</v>
       </c>
@@ -59322,7 +59328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2163">
         <v>2162</v>
       </c>
@@ -61938,7 +61944,7 @@
         <v>4652</v>
       </c>
       <c r="D2291" t="s">
-        <v>5004</v>
+        <v>5008</v>
       </c>
       <c r="E2291" t="s">
         <v>9</v>
@@ -62641,7 +62647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2327">
         <v>2326</v>
       </c>
@@ -62661,7 +62667,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2328">
         <v>2327</v>
       </c>
@@ -62681,7 +62687,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2329" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2329">
         <v>2328</v>
       </c>
@@ -62701,7 +62707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2330" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2330">
         <v>2329</v>
       </c>
@@ -62721,7 +62727,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2331" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2331">
         <v>2330</v>
       </c>
@@ -62741,7 +62747,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2332">
         <v>2331</v>
       </c>
@@ -62761,7 +62767,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2333">
         <v>2332</v>
       </c>
@@ -62781,7 +62787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2334">
         <v>2333</v>
       </c>
@@ -63564,7 +63570,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2373" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2373">
         <v>2372</v>
       </c>
@@ -65455,6 +65461,27 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:G2466" xr:uid="{3A8A7F03-DC36-4A33-B49D-D5EA9E1CB115}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="30mm NTBK - 3 Way Corner"/>
+        <filter val="30mm NTBK - Omega Jointer"/>
+        <filter val="40-50 CHAMFERED TBK - 3 Way Corner"/>
+        <filter val="40-50 CHAMFERED TBK - Omega Jointer"/>
+        <filter val="40mm CHAMFERED TBK - 3 Way Corner"/>
+        <filter val="40mm CHAMFERED TBK - Omega Jointer"/>
+        <filter val="40mm NTBK Rounded - 3 Way Corner"/>
+        <filter val="40mm NTBK Rounded - Omega Jointer"/>
+        <filter val="40mm TBK - 3 Way Corner"/>
+        <filter val="40mm TBK - Omega Jointer"/>
+        <filter val="50mm NTBK - 3 Way Corner"/>
+        <filter val="50mm NTBK - Omega Jointer"/>
+        <filter val="50mm TBK - 3 Way Corner"/>
+        <filter val="50mm TBK - Omega Jointer"/>
+        <filter val="50mm TBK - Section Joint 3 Way Corner"/>
+        <filter val="60-45 TBK - 3 Way Corner"/>
+        <filter val="60-45 TBK - Omega Jointer"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="PLASTIC PARTS"/>

--- a/data/item_master.xlsx
+++ b/data/item_master.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hablu\Documents\GitHub\node_ahuBom\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8960FE6E-484E-4105-94AE-0BB286F4A7AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC1225-A7D5-4127-8B2F-714840FA86E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12377" uniqueCount="5010">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12379" uniqueCount="5011">
   <si>
     <t>id</t>
   </si>
@@ -15065,6 +15065,9 @@
   </si>
   <si>
     <t>60-45</t>
+  </si>
+  <si>
+    <t>Panel</t>
   </si>
 </sst>
 </file>
@@ -15909,7 +15912,7 @@
   <dimension ref="A1:G2466"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+      <selection activeCell="G2055" sqref="G2055"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21335,7 +21338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
@@ -22381,7 +22384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
@@ -30582,7 +30585,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="732" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>731</v>
       </c>
@@ -31545,7 +31548,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>779</v>
       </c>
@@ -34114,7 +34117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908">
         <v>907</v>
       </c>
@@ -34997,7 +35000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="952" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952">
         <v>951</v>
       </c>
@@ -36743,7 +36746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1039" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1039">
         <v>1038</v>
       </c>
@@ -39829,7 +39832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1193">
         <v>1192</v>
       </c>
@@ -41232,7 +41235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1263">
         <v>1262</v>
       </c>
@@ -41392,7 +41395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1271">
         <v>1270</v>
       </c>
@@ -46153,7 +46156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1508" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1508">
         <v>1507</v>
       </c>
@@ -47139,7 +47142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1557">
         <v>1556</v>
       </c>
@@ -47942,7 +47945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1597" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1597">
         <v>1596</v>
       </c>
@@ -50220,7 +50223,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1710" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1710">
         <v>1709</v>
       </c>
@@ -52373,6 +52376,9 @@
       <c r="C1817" t="s">
         <v>3685</v>
       </c>
+      <c r="D1817" t="s">
+        <v>5010</v>
+      </c>
       <c r="E1817" t="s">
         <v>9</v>
       </c>
@@ -54415,7 +54421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="1919" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1919" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1919">
         <v>1918</v>
       </c>
@@ -54658,7 +54664,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="1931" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1931" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1931">
         <v>1930</v>
       </c>
@@ -56541,7 +56547,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2025" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2025" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2025">
         <v>2024</v>
       </c>
@@ -56550,6 +56556,9 @@
       </c>
       <c r="C2025" t="s">
         <v>4102</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>5010</v>
       </c>
       <c r="E2025" t="s">
         <v>9</v>
@@ -57141,7 +57150,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="2055" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2055" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2055">
         <v>2054</v>
       </c>
@@ -57521,7 +57530,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="2074" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2074">
         <v>2073</v>
       </c>
@@ -57541,7 +57550,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2075" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2075">
         <v>2074</v>
       </c>
@@ -58307,7 +58316,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2113">
         <v>2112</v>
       </c>
@@ -58330,7 +58339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2114">
         <v>2113</v>
       </c>
@@ -59202,7 +59211,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2157">
         <v>2156</v>
       </c>
@@ -59225,7 +59234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2158">
         <v>2157</v>
       </c>
@@ -59248,7 +59257,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2159">
         <v>2158</v>
       </c>
@@ -59268,7 +59277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2160">
         <v>2159</v>
       </c>
@@ -61801,7 +61810,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="2285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2285">
         <v>2284</v>
       </c>
@@ -61933,7 +61942,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2291">
         <v>2290</v>
       </c>
@@ -62327,7 +62336,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="2311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2311">
         <v>2310</v>
       </c>
@@ -62347,7 +62356,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2312">
         <v>2311</v>
       </c>
@@ -62807,7 +62816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2335">
         <v>2334</v>
       </c>
@@ -63190,7 +63199,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="2354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2354">
         <v>2353</v>
       </c>
@@ -63750,7 +63759,7 @@
         <v>4459</v>
       </c>
     </row>
-    <row r="2382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2382">
         <v>2381</v>
       </c>
@@ -64173,7 +64182,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2403" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2403">
         <v>2402</v>
       </c>
@@ -65461,30 +65470,9 @@
     </row>
   </sheetData>
   <autoFilter ref="C1:G2466" xr:uid="{3A8A7F03-DC36-4A33-B49D-D5EA9E1CB115}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="30mm NTBK - 3 Way Corner"/>
-        <filter val="30mm NTBK - Omega Jointer"/>
-        <filter val="40-50 CHAMFERED TBK - 3 Way Corner"/>
-        <filter val="40-50 CHAMFERED TBK - Omega Jointer"/>
-        <filter val="40mm CHAMFERED TBK - 3 Way Corner"/>
-        <filter val="40mm CHAMFERED TBK - Omega Jointer"/>
-        <filter val="40mm NTBK Rounded - 3 Way Corner"/>
-        <filter val="40mm NTBK Rounded - Omega Jointer"/>
-        <filter val="40mm TBK - 3 Way Corner"/>
-        <filter val="40mm TBK - Omega Jointer"/>
-        <filter val="50mm NTBK - 3 Way Corner"/>
-        <filter val="50mm NTBK - Omega Jointer"/>
-        <filter val="50mm TBK - 3 Way Corner"/>
-        <filter val="50mm TBK - Omega Jointer"/>
-        <filter val="50mm TBK - Section Joint 3 Way Corner"/>
-        <filter val="60-45 TBK - 3 Way Corner"/>
-        <filter val="60-45 TBK - Omega Jointer"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="PLASTIC PARTS"/>
+        <filter val="GASKET &amp; INSULATION"/>
       </filters>
     </filterColumn>
   </autoFilter>
